--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-925671.4211120281</v>
+        <v>-864657.4672105607</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17372041.81341184</v>
+        <v>16747753.60606087</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248445</v>
+        <v>492028.9342484444</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9809333.141686736</v>
+        <v>9803988.509376775</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>251.7207938508591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>102.3332738304125</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>257.1184826188806</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +820,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>172.4915556588464</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501924847</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>317.6181421422756</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>110.0188604092226</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +962,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162.8244812820716</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,13 +1060,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>94.4312367321524</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>27.61612681035268</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -1184,19 +1184,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>228.0946441494065</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>46.24876144511828</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1342,16 +1342,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>123.8619758694181</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1370,10 +1370,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>280.6346488794607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>291.8221823469772</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1546,7 +1546,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430581</v>
       </c>
       <c r="U13" t="n">
-        <v>46.22530271040127</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1619,13 +1619,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>104.5837097820909</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>200.7600911043249</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170492</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>144.493775385548</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>387.8313131492915</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,13 +1898,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>43.84238007842436</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2008,7 +2008,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>7.264602967362454</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>39.88277234054605</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>65.07205481540626</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>47.05791293240841</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>137.8834167598883</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,10 +2251,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361673</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2479,10 +2479,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.71046610478319</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2725,10 +2725,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170518</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>24.62703520776627</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432362</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742933594</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3442,7 +3442,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432362</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402849</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="38">
@@ -3670,7 +3670,7 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591144</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3916,7 +3916,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432346</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1208.492610164787</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C2" t="n">
-        <v>1174.390541388614</v>
+        <v>947.3295611191371</v>
       </c>
       <c r="D2" t="n">
-        <v>745.8088671258822</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E2" t="n">
-        <v>716.0745263245815</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F2" t="n">
-        <v>288.2070967337892</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
-        <v>288.2070967337892</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V2" t="n">
-        <v>1250.914606198081</v>
+        <v>2087.40435335844</v>
       </c>
       <c r="W2" t="n">
-        <v>1250.099555649518</v>
+        <v>1682.548898769473</v>
       </c>
       <c r="X2" t="n">
-        <v>1234.997496269233</v>
+        <v>1263.406435348784</v>
       </c>
       <c r="Y2" t="n">
-        <v>1230.75177660929</v>
+        <v>1003.690796339813</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.3658326657497</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>604.8041211489747</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8041211489747</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>929.6236371651722</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1349.676536110076</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>1501.531714180894</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U4" t="n">
-        <v>1501.531714180894</v>
+        <v>2124.33055796836</v>
       </c>
       <c r="V4" t="n">
-        <v>1214.576206051324</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W4" t="n">
-        <v>1214.576206051324</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>969.1844513847368</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>969.1844513847368</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>977.6515424412072</v>
       </c>
       <c r="C5" t="n">
-        <v>1216.618961230546</v>
+        <v>943.5494736650346</v>
       </c>
       <c r="D5" t="n">
-        <v>1184.749580445395</v>
+        <v>507.6396888394791</v>
       </c>
       <c r="E5" t="n">
-        <v>756.1679061826633</v>
+        <v>477.9053480381783</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>454.0783224877901</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111165</v>
+        <v>1408.196832586058</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.0433221421854</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>288.4816106254103</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>122.603617826933</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>122.603617826933</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>761.43086230084</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1429.886162364244</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1142.930654234675</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>870.9042498209665</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>625.5124951543789</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>625.5124951543789</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1261.783165269556</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C8" t="n">
-        <v>823.6406924529796</v>
+        <v>859.8975998488716</v>
       </c>
       <c r="D8" t="n">
-        <v>791.7713116678282</v>
+        <v>828.0282190637201</v>
       </c>
       <c r="E8" t="n">
-        <v>762.0369708665274</v>
+        <v>394.2534742220153</v>
       </c>
       <c r="F8" t="n">
-        <v>738.2099453161393</v>
+        <v>370.4264486716271</v>
       </c>
       <c r="G8" t="n">
-        <v>336.8121139394032</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>47.68195938261949</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>47.68195938261949</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>47.68195938261949</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>47.68195938261949</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>47.68195938261949</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>47.68195938261949</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>488.3166236994902</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1078.380871059406</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1668.445118419323</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.943904377918</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2384.097969130974</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2300.446095314811</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2300.446095314811</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2300.446095314811</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1937.829145248638</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1707.430514794692</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1692.328455414407</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1688.082735754464</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>553.8537043739123</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>447.3972432105546</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>352.3069543571078</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>258.1865396840615</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>174.8027013002231</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>89.41761156640702</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>47.68195938261949</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>47.68195938261949</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>47.68195938261949</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>47.68195938261949</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>47.68195938261949</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>47.68195938261949</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>47.68195938261949</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O9" t="n">
-        <v>462.945756775097</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1053.010004135013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1593.748942767089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1710.921720861428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1647.466283309811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1517.287639640413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1340.951092640381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1141.833574702381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>956.5108204355747</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>801.6433846744546</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>675.1576054536754</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1126.740119994501</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>954.1784084777258</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>788.3004156792485</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>618.5424119299857</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>441.835357891742</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>276.2440829175696</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>136.3419086079442</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>47.68195938261949</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>134.2616445473093</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>409.0200991184449</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>827.229980886406</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1006.470247912874</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1448.729051070519</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1868.3983002963</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2215.905194266642</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2384.097969130974</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2362.680147836346</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2203.438779134343</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2078.325672195537</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>2078.325672195537</v>
+        <v>2210.968635687902</v>
       </c>
       <c r="V10" t="n">
-        <v>1791.370164065967</v>
+        <v>1924.013127558332</v>
       </c>
       <c r="W10" t="n">
-        <v>1791.370164065967</v>
+        <v>1651.986723144624</v>
       </c>
       <c r="X10" t="n">
-        <v>1545.97840939938</v>
+        <v>1406.594968478036</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.558738713488</v>
+        <v>1179.175297792145</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1926.264419754191</v>
+        <v>2116.772207833443</v>
       </c>
       <c r="C11" t="n">
-        <v>1642.795077451705</v>
+        <v>1678.629735016867</v>
       </c>
       <c r="D11" t="n">
-        <v>1642.795077451705</v>
+        <v>1242.719950191311</v>
       </c>
       <c r="E11" t="n">
-        <v>1209.02033261</v>
+        <v>808.9452053496061</v>
       </c>
       <c r="F11" t="n">
-        <v>781.1529030192074</v>
+        <v>381.0777757588139</v>
       </c>
       <c r="G11" t="n">
-        <v>379.7550716424714</v>
+        <v>381.0777757588139</v>
       </c>
       <c r="H11" t="n">
-        <v>90.62491708568764</v>
+        <v>91.94762120203016</v>
       </c>
       <c r="I11" t="n">
-        <v>90.20812771282765</v>
+        <v>91.53083182917017</v>
       </c>
       <c r="J11" t="n">
-        <v>90.20812771282765</v>
+        <v>91.53083182917017</v>
       </c>
       <c r="K11" t="n">
-        <v>90.20812771282765</v>
+        <v>91.53083182917017</v>
       </c>
       <c r="L11" t="n">
-        <v>869.938413079787</v>
+        <v>91.53083182917017</v>
       </c>
       <c r="M11" t="n">
-        <v>869.938413079787</v>
+        <v>1224.224875715151</v>
       </c>
       <c r="N11" t="n">
-        <v>1986.263993526029</v>
+        <v>2349.955859151598</v>
       </c>
       <c r="O11" t="n">
-        <v>2966.443660096335</v>
+        <v>3330.135525721904</v>
       </c>
       <c r="P11" t="n">
-        <v>3794.753534929731</v>
+        <v>4030.042805499914</v>
       </c>
       <c r="Q11" t="n">
-        <v>4341.252320888326</v>
+        <v>4576.541591458508</v>
       </c>
       <c r="R11" t="n">
-        <v>4510.406385641382</v>
+        <v>4576.541591458508</v>
       </c>
       <c r="S11" t="n">
-        <v>4426.754511825219</v>
+        <v>4492.889717642345</v>
       </c>
       <c r="T11" t="n">
-        <v>4206.687284698258</v>
+        <v>4272.822490515384</v>
       </c>
       <c r="U11" t="n">
-        <v>3947.464982015274</v>
+        <v>4013.6001878324</v>
       </c>
       <c r="V11" t="n">
-        <v>3584.848031949101</v>
+        <v>3650.983237766227</v>
       </c>
       <c r="W11" t="n">
-        <v>3179.992577360134</v>
+        <v>3246.12778317726</v>
       </c>
       <c r="X11" t="n">
-        <v>2760.850113939445</v>
+        <v>2951.357902018698</v>
       </c>
       <c r="Y11" t="n">
-        <v>2352.563990239099</v>
+        <v>2543.071778318351</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>596.3798727041204</v>
+        <v>597.7025768204629</v>
       </c>
       <c r="C12" t="n">
-        <v>489.9234115407627</v>
+        <v>491.2461156571052</v>
       </c>
       <c r="D12" t="n">
-        <v>394.833122687316</v>
+        <v>396.1558268036585</v>
       </c>
       <c r="E12" t="n">
-        <v>300.7127080142697</v>
+        <v>302.0354121306122</v>
       </c>
       <c r="F12" t="n">
-        <v>217.3288696304313</v>
+        <v>218.6515737467738</v>
       </c>
       <c r="G12" t="n">
-        <v>131.9437798966152</v>
+        <v>133.2664840129577</v>
       </c>
       <c r="H12" t="n">
-        <v>90.20812771282765</v>
+        <v>91.53083182917017</v>
       </c>
       <c r="I12" t="n">
-        <v>90.20812771282765</v>
+        <v>91.53083182917017</v>
       </c>
       <c r="J12" t="n">
-        <v>90.20812771282765</v>
+        <v>91.53083182917017</v>
       </c>
       <c r="K12" t="n">
-        <v>90.20812771282765</v>
+        <v>91.53083182917017</v>
       </c>
       <c r="L12" t="n">
-        <v>90.20812771282765</v>
+        <v>91.53083182917017</v>
       </c>
       <c r="M12" t="n">
-        <v>90.20812771282765</v>
+        <v>91.53083182917017</v>
       </c>
       <c r="N12" t="n">
-        <v>90.20812771282765</v>
+        <v>91.53083182917017</v>
       </c>
       <c r="O12" t="n">
-        <v>275.8130059860231</v>
+        <v>277.1357101023655</v>
       </c>
       <c r="P12" t="n">
-        <v>1095.536172465221</v>
+        <v>1096.858876581564</v>
       </c>
       <c r="Q12" t="n">
-        <v>1636.275111097297</v>
+        <v>1637.597815213639</v>
       </c>
       <c r="R12" t="n">
-        <v>1753.447889191636</v>
+        <v>1754.770593307979</v>
       </c>
       <c r="S12" t="n">
-        <v>1689.992451640019</v>
+        <v>1691.315155756362</v>
       </c>
       <c r="T12" t="n">
-        <v>1559.813807970621</v>
+        <v>1561.136512086964</v>
       </c>
       <c r="U12" t="n">
-        <v>1383.477260970589</v>
+        <v>1384.799965086932</v>
       </c>
       <c r="V12" t="n">
-        <v>1184.359743032589</v>
+        <v>1185.682447148931</v>
       </c>
       <c r="W12" t="n">
-        <v>999.0369887657828</v>
+        <v>1000.359692882125</v>
       </c>
       <c r="X12" t="n">
-        <v>844.1695530046628</v>
+        <v>845.4922571210053</v>
       </c>
       <c r="Y12" t="n">
-        <v>717.6837737838836</v>
+        <v>719.0064779002261</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1169.266288324709</v>
+        <v>1081.929043215727</v>
       </c>
       <c r="C13" t="n">
-        <v>996.7045768079338</v>
+        <v>909.3673316989517</v>
       </c>
       <c r="D13" t="n">
-        <v>830.8265840094564</v>
+        <v>743.4893389004744</v>
       </c>
       <c r="E13" t="n">
-        <v>661.0685802601938</v>
+        <v>573.7313351512117</v>
       </c>
       <c r="F13" t="n">
-        <v>484.3615262219501</v>
+        <v>397.024281112968</v>
       </c>
       <c r="G13" t="n">
-        <v>318.7702512477778</v>
+        <v>231.4330061387956</v>
       </c>
       <c r="H13" t="n">
-        <v>178.8680769381523</v>
+        <v>91.53083182917017</v>
       </c>
       <c r="I13" t="n">
-        <v>90.20812771282765</v>
+        <v>91.53083182917017</v>
       </c>
       <c r="J13" t="n">
-        <v>176.7878128775175</v>
+        <v>178.11051699386</v>
       </c>
       <c r="K13" t="n">
-        <v>451.5462674486531</v>
+        <v>452.8689715649956</v>
       </c>
       <c r="L13" t="n">
-        <v>869.7561492166142</v>
+        <v>871.0788533329567</v>
       </c>
       <c r="M13" t="n">
-        <v>1329.240016397527</v>
+        <v>1330.56272051387</v>
       </c>
       <c r="N13" t="n">
-        <v>1771.498819555172</v>
+        <v>1772.821523671514</v>
       </c>
       <c r="O13" t="n">
-        <v>2191.168068780953</v>
+        <v>2192.490772897296</v>
       </c>
       <c r="P13" t="n">
-        <v>2538.674962751295</v>
+        <v>2539.997666867638</v>
       </c>
       <c r="Q13" t="n">
-        <v>2706.867737615627</v>
+        <v>2708.19044173197</v>
       </c>
       <c r="R13" t="n">
-        <v>2685.449916320999</v>
+        <v>2708.19044173197</v>
       </c>
       <c r="S13" t="n">
-        <v>2685.449916320999</v>
+        <v>2708.19044173197</v>
       </c>
       <c r="T13" t="n">
-        <v>2439.570469899455</v>
+        <v>2583.974000577366</v>
       </c>
       <c r="U13" t="n">
-        <v>2392.878244939453</v>
+        <v>2305.540999830471</v>
       </c>
       <c r="V13" t="n">
-        <v>2105.922736809884</v>
+        <v>2018.585491700902</v>
       </c>
       <c r="W13" t="n">
-        <v>1833.896332396175</v>
+        <v>1746.559087287193</v>
       </c>
       <c r="X13" t="n">
-        <v>1588.504577729588</v>
+        <v>1501.167332620606</v>
       </c>
       <c r="Y13" t="n">
-        <v>1361.084907043696</v>
+        <v>1273.747661934714</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2521.124682315939</v>
+        <v>2227.106455319406</v>
       </c>
       <c r="C14" t="n">
-        <v>2082.982209499362</v>
+        <v>1788.963982502829</v>
       </c>
       <c r="D14" t="n">
-        <v>1647.072424673806</v>
+        <v>1353.054197677274</v>
       </c>
       <c r="E14" t="n">
-        <v>1213.297679832101</v>
+        <v>919.2794528355689</v>
       </c>
       <c r="F14" t="n">
-        <v>785.4302502413093</v>
+        <v>491.4120232447767</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0324188645732</v>
+        <v>385.7719123537757</v>
       </c>
       <c r="H14" t="n">
-        <v>94.90226430778945</v>
+        <v>96.64175779699194</v>
       </c>
       <c r="I14" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="J14" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="K14" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="L14" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="M14" t="n">
-        <v>1251.95009951834</v>
+        <v>1161.375045654797</v>
       </c>
       <c r="N14" t="n">
-        <v>2377.681082954787</v>
+        <v>2287.106029091244</v>
       </c>
       <c r="O14" t="n">
-        <v>3357.860749525094</v>
+        <v>3267.285695661551</v>
       </c>
       <c r="P14" t="n">
-        <v>4186.17062435849</v>
+        <v>4095.595570494947</v>
       </c>
       <c r="Q14" t="n">
-        <v>4732.669410317085</v>
+        <v>4642.094356453541</v>
       </c>
       <c r="R14" t="n">
-        <v>4745.113215389472</v>
+        <v>4811.248421206597</v>
       </c>
       <c r="S14" t="n">
-        <v>4745.113215389472</v>
+        <v>4727.596547390434</v>
       </c>
       <c r="T14" t="n">
-        <v>4745.113215389472</v>
+        <v>4507.529320263473</v>
       </c>
       <c r="U14" t="n">
-        <v>4542.325244577022</v>
+        <v>4248.30701758049</v>
       </c>
       <c r="V14" t="n">
-        <v>4179.708294510849</v>
+        <v>3885.690067514316</v>
       </c>
       <c r="W14" t="n">
-        <v>3774.852839921882</v>
+        <v>3480.83461292535</v>
       </c>
       <c r="X14" t="n">
-        <v>3355.710376501193</v>
+        <v>3061.69214950466</v>
       </c>
       <c r="Y14" t="n">
-        <v>2947.424252800846</v>
+        <v>2653.406025804314</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>601.0740092990823</v>
+        <v>602.3967134154248</v>
       </c>
       <c r="C15" t="n">
-        <v>494.6175481357245</v>
+        <v>495.940252252067</v>
       </c>
       <c r="D15" t="n">
-        <v>399.5272592822778</v>
+        <v>400.8499633986203</v>
       </c>
       <c r="E15" t="n">
-        <v>305.4068446092315</v>
+        <v>306.729548725574</v>
       </c>
       <c r="F15" t="n">
-        <v>222.0230062253931</v>
+        <v>223.3457103417356</v>
       </c>
       <c r="G15" t="n">
-        <v>136.637916491577</v>
+        <v>137.9606206079195</v>
       </c>
       <c r="H15" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="I15" t="n">
-        <v>94.90226430778945</v>
+        <v>122.2886415845895</v>
       </c>
       <c r="J15" t="n">
-        <v>94.90226430778945</v>
+        <v>281.8298466973274</v>
       </c>
       <c r="K15" t="n">
-        <v>94.90226430778945</v>
+        <v>281.8298466973274</v>
       </c>
       <c r="L15" t="n">
-        <v>94.90226430778945</v>
+        <v>281.8298466973274</v>
       </c>
       <c r="M15" t="n">
-        <v>94.90226430778945</v>
+        <v>281.8298466973274</v>
       </c>
       <c r="N15" t="n">
-        <v>94.90226430778945</v>
+        <v>281.8298466973274</v>
       </c>
       <c r="O15" t="n">
-        <v>280.507142580985</v>
+        <v>281.8298466973274</v>
       </c>
       <c r="P15" t="n">
-        <v>1100.230309060183</v>
+        <v>1101.553013176526</v>
       </c>
       <c r="Q15" t="n">
-        <v>1640.969247692259</v>
+        <v>1642.291951808601</v>
       </c>
       <c r="R15" t="n">
-        <v>1758.142025786598</v>
+        <v>1759.464729902941</v>
       </c>
       <c r="S15" t="n">
-        <v>1694.686588234981</v>
+        <v>1696.009292351324</v>
       </c>
       <c r="T15" t="n">
-        <v>1564.507944565583</v>
+        <v>1565.830648681926</v>
       </c>
       <c r="U15" t="n">
-        <v>1388.171397565551</v>
+        <v>1389.494101681894</v>
       </c>
       <c r="V15" t="n">
-        <v>1189.053879627551</v>
+        <v>1190.376583743893</v>
       </c>
       <c r="W15" t="n">
-        <v>1003.731125360745</v>
+        <v>1005.053829477087</v>
       </c>
       <c r="X15" t="n">
-        <v>848.8636895996246</v>
+        <v>850.1863937159671</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3779103788454</v>
+        <v>723.7006144951879</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>804.3961017254013</v>
+        <v>946.7210055010632</v>
       </c>
       <c r="C16" t="n">
-        <v>631.8343902086262</v>
+        <v>774.1592939842882</v>
       </c>
       <c r="D16" t="n">
-        <v>465.9563974101491</v>
+        <v>608.2813011858109</v>
       </c>
       <c r="E16" t="n">
-        <v>296.1983936608863</v>
+        <v>438.5232974365481</v>
       </c>
       <c r="F16" t="n">
-        <v>119.4913396226425</v>
+        <v>261.8162433983043</v>
       </c>
       <c r="G16" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="H16" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="I16" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="J16" t="n">
-        <v>181.4819494724793</v>
+        <v>182.8046535888218</v>
       </c>
       <c r="K16" t="n">
-        <v>456.2404040436148</v>
+        <v>457.5631081599574</v>
       </c>
       <c r="L16" t="n">
-        <v>874.4502858115759</v>
+        <v>875.7729899279184</v>
       </c>
       <c r="M16" t="n">
-        <v>1333.934152992489</v>
+        <v>1335.256857108832</v>
       </c>
       <c r="N16" t="n">
-        <v>1776.192956150133</v>
+        <v>1777.515660266476</v>
       </c>
       <c r="O16" t="n">
-        <v>2195.862205375915</v>
+        <v>2197.184909492257</v>
       </c>
       <c r="P16" t="n">
-        <v>2543.369099346256</v>
+        <v>2544.691803462599</v>
       </c>
       <c r="Q16" t="n">
-        <v>2711.561874210589</v>
+        <v>2712.884578326932</v>
       </c>
       <c r="R16" t="n">
-        <v>2711.561874210589</v>
+        <v>2712.884578326932</v>
       </c>
       <c r="S16" t="n">
-        <v>2552.320505508585</v>
+        <v>2553.643209624928</v>
       </c>
       <c r="T16" t="n">
-        <v>2306.441059087041</v>
+        <v>2307.763763203383</v>
       </c>
       <c r="U16" t="n">
-        <v>2028.008058340146</v>
+        <v>2029.330762456489</v>
       </c>
       <c r="V16" t="n">
-        <v>1741.052550210576</v>
+        <v>1883.377453986238</v>
       </c>
       <c r="W16" t="n">
-        <v>1469.026145796868</v>
+        <v>1611.35104957253</v>
       </c>
       <c r="X16" t="n">
-        <v>1223.63439113028</v>
+        <v>1365.959294905942</v>
       </c>
       <c r="Y16" t="n">
-        <v>996.2147204443884</v>
+        <v>1138.53962422005</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2521.541471688799</v>
+        <v>2486.328758002389</v>
       </c>
       <c r="C17" t="n">
-        <v>2083.398998872222</v>
+        <v>2048.186285185813</v>
       </c>
       <c r="D17" t="n">
-        <v>1647.489214046667</v>
+        <v>1612.276500360257</v>
       </c>
       <c r="E17" t="n">
-        <v>1213.714469204961</v>
+        <v>1178.501755518552</v>
       </c>
       <c r="F17" t="n">
-        <v>785.8470396141693</v>
+        <v>786.7529543576518</v>
       </c>
       <c r="G17" t="n">
-        <v>384.4492082374331</v>
+        <v>385.3551229809157</v>
       </c>
       <c r="H17" t="n">
-        <v>95.3190536806494</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="I17" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="J17" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="K17" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="L17" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="M17" t="n">
-        <v>1251.95009951834</v>
+        <v>1161.375045654797</v>
       </c>
       <c r="N17" t="n">
-        <v>2377.681082954787</v>
+        <v>2287.106029091244</v>
       </c>
       <c r="O17" t="n">
-        <v>3357.860749525094</v>
+        <v>3267.285695661551</v>
       </c>
       <c r="P17" t="n">
-        <v>4029.460364677821</v>
+        <v>4095.595570494947</v>
       </c>
       <c r="Q17" t="n">
-        <v>4575.959150636416</v>
+        <v>4642.094356453541</v>
       </c>
       <c r="R17" t="n">
-        <v>4745.113215389472</v>
+        <v>4811.248421206597</v>
       </c>
       <c r="S17" t="n">
-        <v>4661.461341573309</v>
+        <v>4727.596547390434</v>
       </c>
       <c r="T17" t="n">
-        <v>4441.394114446348</v>
+        <v>4507.529320263473</v>
       </c>
       <c r="U17" t="n">
-        <v>4182.171811763365</v>
+        <v>4507.529320263473</v>
       </c>
       <c r="V17" t="n">
-        <v>3819.554861697191</v>
+        <v>4144.912370197299</v>
       </c>
       <c r="W17" t="n">
-        <v>3775.269629294743</v>
+        <v>3740.056915608333</v>
       </c>
       <c r="X17" t="n">
-        <v>3356.127165874053</v>
+        <v>3320.914452187644</v>
       </c>
       <c r="Y17" t="n">
-        <v>2947.841042173707</v>
+        <v>2912.628328487297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>601.0740092990823</v>
+        <v>602.3967134154248</v>
       </c>
       <c r="C18" t="n">
-        <v>494.6175481357245</v>
+        <v>495.940252252067</v>
       </c>
       <c r="D18" t="n">
-        <v>399.5272592822778</v>
+        <v>400.8499633986203</v>
       </c>
       <c r="E18" t="n">
-        <v>305.4068446092315</v>
+        <v>306.729548725574</v>
       </c>
       <c r="F18" t="n">
-        <v>222.0230062253931</v>
+        <v>223.3457103417356</v>
       </c>
       <c r="G18" t="n">
-        <v>136.637916491577</v>
+        <v>137.9606206079195</v>
       </c>
       <c r="H18" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="I18" t="n">
-        <v>94.90226430778945</v>
+        <v>122.2886415845895</v>
       </c>
       <c r="J18" t="n">
-        <v>94.90226430778945</v>
+        <v>281.8298466973274</v>
       </c>
       <c r="K18" t="n">
-        <v>94.90226430778945</v>
+        <v>281.8298466973274</v>
       </c>
       <c r="L18" t="n">
-        <v>94.90226430778945</v>
+        <v>281.8298466973274</v>
       </c>
       <c r="M18" t="n">
-        <v>94.90226430778945</v>
+        <v>281.8298466973274</v>
       </c>
       <c r="N18" t="n">
-        <v>94.90226430778945</v>
+        <v>281.8298466973274</v>
       </c>
       <c r="O18" t="n">
-        <v>280.507142580985</v>
+        <v>281.8298466973274</v>
       </c>
       <c r="P18" t="n">
-        <v>1100.230309060183</v>
+        <v>1101.553013176526</v>
       </c>
       <c r="Q18" t="n">
-        <v>1640.969247692259</v>
+        <v>1642.291951808601</v>
       </c>
       <c r="R18" t="n">
-        <v>1758.142025786598</v>
+        <v>1759.464729902941</v>
       </c>
       <c r="S18" t="n">
-        <v>1694.686588234981</v>
+        <v>1696.009292351324</v>
       </c>
       <c r="T18" t="n">
-        <v>1564.507944565583</v>
+        <v>1565.830648681926</v>
       </c>
       <c r="U18" t="n">
-        <v>1388.171397565551</v>
+        <v>1389.494101681894</v>
       </c>
       <c r="V18" t="n">
-        <v>1189.053879627551</v>
+        <v>1190.376583743893</v>
       </c>
       <c r="W18" t="n">
-        <v>1003.731125360745</v>
+        <v>1005.053829477087</v>
       </c>
       <c r="X18" t="n">
-        <v>848.8636895996246</v>
+        <v>850.1863937159671</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3779103788454</v>
+        <v>723.7006144951879</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1173.960424919671</v>
+        <v>784.3009845471161</v>
       </c>
       <c r="C19" t="n">
-        <v>1001.398713402896</v>
+        <v>611.739273030341</v>
       </c>
       <c r="D19" t="n">
-        <v>835.5207206044186</v>
+        <v>445.8612802318637</v>
       </c>
       <c r="E19" t="n">
-        <v>665.7627168551558</v>
+        <v>438.5232974365481</v>
       </c>
       <c r="F19" t="n">
-        <v>489.0556628169119</v>
+        <v>261.8162433983043</v>
       </c>
       <c r="G19" t="n">
-        <v>323.4643878427396</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="H19" t="n">
-        <v>183.5622135331141</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="I19" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="J19" t="n">
-        <v>181.4819494724793</v>
+        <v>182.8046535888218</v>
       </c>
       <c r="K19" t="n">
-        <v>456.2404040436148</v>
+        <v>457.5631081599574</v>
       </c>
       <c r="L19" t="n">
-        <v>874.4502858115759</v>
+        <v>875.7729899279184</v>
       </c>
       <c r="M19" t="n">
-        <v>1333.934152992489</v>
+        <v>1335.256857108832</v>
       </c>
       <c r="N19" t="n">
-        <v>1776.192956150133</v>
+        <v>1777.515660266476</v>
       </c>
       <c r="O19" t="n">
-        <v>2195.862205375915</v>
+        <v>2197.184909492257</v>
       </c>
       <c r="P19" t="n">
-        <v>2543.369099346256</v>
+        <v>2544.691803462599</v>
       </c>
       <c r="Q19" t="n">
-        <v>2711.561874210589</v>
+        <v>2712.884578326932</v>
       </c>
       <c r="R19" t="n">
-        <v>2690.144052915961</v>
+        <v>2691.466757032304</v>
       </c>
       <c r="S19" t="n">
-        <v>2649.858424289147</v>
+        <v>2532.2253883303</v>
       </c>
       <c r="T19" t="n">
-        <v>2403.978977867602</v>
+        <v>2286.345941908755</v>
       </c>
       <c r="U19" t="n">
-        <v>2125.545977120707</v>
+        <v>2007.912941161861</v>
       </c>
       <c r="V19" t="n">
-        <v>1838.590468991137</v>
+        <v>1720.957433032291</v>
       </c>
       <c r="W19" t="n">
-        <v>1838.590468991137</v>
+        <v>1448.931028618583</v>
       </c>
       <c r="X19" t="n">
-        <v>1593.19871432455</v>
+        <v>1203.539273951995</v>
       </c>
       <c r="Y19" t="n">
-        <v>1365.779043638658</v>
+        <v>976.1196032661032</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2521.541471688799</v>
+        <v>2522.447386432281</v>
       </c>
       <c r="C20" t="n">
-        <v>2083.398998872222</v>
+        <v>2084.304913615704</v>
       </c>
       <c r="D20" t="n">
-        <v>1647.489214046666</v>
+        <v>1648.395128790149</v>
       </c>
       <c r="E20" t="n">
-        <v>1213.714469204961</v>
+        <v>1214.620383948444</v>
       </c>
       <c r="F20" t="n">
-        <v>785.8470396141693</v>
+        <v>786.7529543576518</v>
       </c>
       <c r="G20" t="n">
-        <v>384.4492082374332</v>
+        <v>385.3551229809157</v>
       </c>
       <c r="H20" t="n">
-        <v>95.31905368064945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="I20" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="J20" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="K20" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="L20" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="M20" t="n">
-        <v>1251.95009951834</v>
+        <v>1161.375045654797</v>
       </c>
       <c r="N20" t="n">
-        <v>2377.681082954787</v>
+        <v>2287.106029091244</v>
       </c>
       <c r="O20" t="n">
-        <v>3357.860749525094</v>
+        <v>3267.285695661551</v>
       </c>
       <c r="P20" t="n">
-        <v>4186.17062435849</v>
+        <v>4095.595570494947</v>
       </c>
       <c r="Q20" t="n">
-        <v>4732.669410317085</v>
+        <v>4642.094356453541</v>
       </c>
       <c r="R20" t="n">
-        <v>4745.113215389472</v>
+        <v>4811.248421206597</v>
       </c>
       <c r="S20" t="n">
-        <v>4661.461341573309</v>
+        <v>4763.715175820326</v>
       </c>
       <c r="T20" t="n">
-        <v>4441.394114446348</v>
+        <v>4543.647948693365</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.171811763365</v>
+        <v>4543.647948693365</v>
       </c>
       <c r="V20" t="n">
-        <v>3819.554861697191</v>
+        <v>4181.030998627191</v>
       </c>
       <c r="W20" t="n">
-        <v>3414.699407108224</v>
+        <v>3776.175544038224</v>
       </c>
       <c r="X20" t="n">
-        <v>2995.556943687535</v>
+        <v>3357.033080617535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2587.270819987189</v>
+        <v>2948.746956917189</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>601.0740092990823</v>
+        <v>602.3967134154248</v>
       </c>
       <c r="C21" t="n">
-        <v>494.6175481357245</v>
+        <v>495.940252252067</v>
       </c>
       <c r="D21" t="n">
-        <v>399.5272592822778</v>
+        <v>400.8499633986203</v>
       </c>
       <c r="E21" t="n">
-        <v>305.4068446092315</v>
+        <v>306.729548725574</v>
       </c>
       <c r="F21" t="n">
-        <v>222.0230062253931</v>
+        <v>223.3457103417356</v>
       </c>
       <c r="G21" t="n">
-        <v>136.637916491577</v>
+        <v>137.9606206079195</v>
       </c>
       <c r="H21" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="I21" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="J21" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="K21" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="L21" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="M21" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="N21" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="O21" t="n">
-        <v>280.507142580985</v>
+        <v>281.8298466973274</v>
       </c>
       <c r="P21" t="n">
-        <v>1100.230309060183</v>
+        <v>1101.553013176526</v>
       </c>
       <c r="Q21" t="n">
-        <v>1640.969247692259</v>
+        <v>1642.291951808601</v>
       </c>
       <c r="R21" t="n">
-        <v>1758.142025786598</v>
+        <v>1759.464729902941</v>
       </c>
       <c r="S21" t="n">
-        <v>1694.686588234981</v>
+        <v>1696.009292351324</v>
       </c>
       <c r="T21" t="n">
-        <v>1564.507944565583</v>
+        <v>1565.830648681926</v>
       </c>
       <c r="U21" t="n">
-        <v>1388.171397565551</v>
+        <v>1389.494101681894</v>
       </c>
       <c r="V21" t="n">
-        <v>1189.053879627551</v>
+        <v>1190.376583743893</v>
       </c>
       <c r="W21" t="n">
-        <v>1003.731125360745</v>
+        <v>1005.053829477087</v>
       </c>
       <c r="X21" t="n">
-        <v>848.8636895996246</v>
+        <v>850.1863937159671</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.3779103788454</v>
+        <v>723.7006144951879</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>974.7968991497603</v>
+        <v>964.9601745437476</v>
       </c>
       <c r="C22" t="n">
-        <v>835.5207206044186</v>
+        <v>792.3984630269725</v>
       </c>
       <c r="D22" t="n">
-        <v>835.5207206044186</v>
+        <v>626.5204702284952</v>
       </c>
       <c r="E22" t="n">
-        <v>665.7627168551558</v>
+        <v>456.7624664792325</v>
       </c>
       <c r="F22" t="n">
-        <v>489.055662816912</v>
+        <v>280.0554124409887</v>
       </c>
       <c r="G22" t="n">
-        <v>323.4643878427397</v>
+        <v>184.8849176494566</v>
       </c>
       <c r="H22" t="n">
-        <v>183.5622135331141</v>
+        <v>184.8849176494566</v>
       </c>
       <c r="I22" t="n">
-        <v>94.90226430778945</v>
+        <v>96.22496842413194</v>
       </c>
       <c r="J22" t="n">
-        <v>181.4819494724793</v>
+        <v>182.8046535888218</v>
       </c>
       <c r="K22" t="n">
-        <v>456.2404040436148</v>
+        <v>457.5631081599574</v>
       </c>
       <c r="L22" t="n">
-        <v>874.4502858115759</v>
+        <v>875.7729899279184</v>
       </c>
       <c r="M22" t="n">
-        <v>1333.934152992489</v>
+        <v>1335.256857108832</v>
       </c>
       <c r="N22" t="n">
-        <v>1776.192956150133</v>
+        <v>1777.515660266476</v>
       </c>
       <c r="O22" t="n">
-        <v>2195.862205375915</v>
+        <v>2197.184909492257</v>
       </c>
       <c r="P22" t="n">
-        <v>2543.369099346256</v>
+        <v>2544.691803462599</v>
       </c>
       <c r="Q22" t="n">
-        <v>2711.561874210589</v>
+        <v>2712.884578326932</v>
       </c>
       <c r="R22" t="n">
-        <v>2690.14405291596</v>
+        <v>2712.884578326932</v>
       </c>
       <c r="S22" t="n">
-        <v>2530.902684213957</v>
+        <v>2712.884578326932</v>
       </c>
       <c r="T22" t="n">
-        <v>2285.023237792412</v>
+        <v>2467.005131905387</v>
       </c>
       <c r="U22" t="n">
-        <v>2006.590237045518</v>
+        <v>2188.572131158492</v>
       </c>
       <c r="V22" t="n">
-        <v>1719.634728915948</v>
+        <v>1901.616623028923</v>
       </c>
       <c r="W22" t="n">
-        <v>1447.60832450224</v>
+        <v>1629.590218615214</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.216569835652</v>
+        <v>1384.198463948627</v>
       </c>
       <c r="Y22" t="n">
-        <v>974.7968991497603</v>
+        <v>1156.778793262735</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.756877347711</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309359</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324586</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="F25" t="n">
-        <v>267.8521152449521</v>
+        <v>441.0680908387445</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707797</v>
+        <v>275.4768158645722</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6230,22 +6230,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1021.77365348828</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>2178.821488698831</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6303,22 +6303,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883922</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716172</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731399</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238771</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856333</v>
+        <v>292.7279083841098</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>127.1366334099375</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6415,16 +6415,16 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759859</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
         <v>1003.573296407379</v>
@@ -6461,10 +6461,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L29" t="n">
         <v>306.120802776629</v>
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1021.773653488281</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2178.821488698832</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,28 +6774,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6835,22 +6835,22 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886291</v>
+        <v>910.3590448886287</v>
       </c>
       <c r="D34" t="n">
-        <v>760.880759503028</v>
+        <v>760.8807595030275</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666414</v>
+        <v>607.5224631666409</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412733</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799775</v>
+        <v>298.0235489799771</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832282</v>
+        <v>174.5210820832277</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,25 +6880,25 @@
         <v>2847.507276056458</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174707</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.64750088558</v>
+        <v>2699.647500885579</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.167761876911</v>
+        <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542892</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826199</v>
+        <v>1937.578667826198</v>
       </c>
       <c r="W34" t="n">
         <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y34" t="n">
         <v>1241.939960298639</v>
@@ -6938,25 +6938,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>306.120802776629</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7011,22 +7011,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O36" t="n">
         <v>287.8657185439749</v>
@@ -7072,22 +7072,22 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886292</v>
+        <v>910.3590448886287</v>
       </c>
       <c r="D37" t="n">
-        <v>760.880759503028</v>
+        <v>760.8807595030275</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666414</v>
+        <v>607.5224631666409</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412733</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799775</v>
+        <v>298.0235489799771</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832282</v>
+        <v>174.5210820832277</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7108,13 +7108,13 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751065</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956767</v>
+        <v>2663.241147956766</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R37" t="n">
         <v>2842.489162174706</v>
@@ -7148,64 +7148,64 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M38" t="n">
-        <v>1228.461808239091</v>
+        <v>1228.461808239092</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.192791675538</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245844</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.68233307924</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037835</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
@@ -7214,7 +7214,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y38" t="n">
         <v>2835.290740278742</v>
@@ -7245,25 +7245,25 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="L39" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="M39" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="N39" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="O39" t="n">
         <v>283.1715819490133</v>
@@ -7309,10 +7309,10 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E40" t="n">
         <v>602.8283265716796</v>
@@ -7321,13 +7321,13 @@
         <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,10 +7348,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579745</v>
@@ -7388,7 +7388,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
@@ -7397,25 +7397,25 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197248</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581717</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I41" t="n">
         <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581783</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>97.56670367581783</v>
+        <v>1228.461808239091</v>
       </c>
       <c r="L41" t="n">
-        <v>97.56670367581783</v>
+        <v>1228.461808239091</v>
       </c>
       <c r="M41" t="n">
         <v>1228.461808239091</v>
@@ -7546,22 +7546,22 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882658</v>
       </c>
       <c r="I43" t="n">
         <v>97.56670367581783</v>
@@ -7573,25 +7573,25 @@
         <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856844</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7600,7 +7600,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
@@ -7609,7 +7609,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7646,28 +7646,28 @@
         <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581783</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>97.56670367581783</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>97.56670367581783</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="M44" t="n">
-        <v>1228.461808239091</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675538</v>
+        <v>2492.90266652336</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245844</v>
+        <v>3473.082333093667</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.68233307924</v>
+        <v>4301.392207927063</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037835</v>
+        <v>4847.890993885658</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790891</v>
@@ -7722,25 +7722,25 @@
         <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581783</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8143,19 +8143,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>117.3049970300782</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,13 +8380,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>34.867532687005</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8462,13 +8462,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>445.0855195119907</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>596.0244922827436</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>596.0244922827437</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8541,13 +8541,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O9" t="n">
-        <v>419.4583812045228</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>596.0244922827436</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8617,7 +8617,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>181.0507747742103</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8693,25 +8693,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>787.6063488555145</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1144.135397864627</v>
       </c>
       <c r="N11" t="n">
-        <v>1127.601596410346</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>706.9770502808178</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1075.909168919864</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>12.56950007311843</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,10 +9000,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>1075.909168919864</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9179,7 +9179,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>678.3834496492195</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9237,10 +9237,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>1075.909168919864</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>12.56950007311843</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>928.8008214318188</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9893,10 +9893,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>928.8008214318197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10367,10 +10367,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,16 +10422,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10586,16 +10586,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,10 +10659,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.31828743765</v>
+        <v>1142.318287437651</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>702.6670879902581</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.31828743765</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.31828743765</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>30.75170697498379</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>256.6575067350992</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>153.1263992089503</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>123.1288564395052</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>120.4463752142712</v>
       </c>
       <c r="U13" t="n">
-        <v>229.4233680290245</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>292.8001432808778</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>55.86998855182836</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>35.75744214559285</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,13 +23786,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>356.9645199646527</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>356.9645199646524</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.75744214559295</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>32.95267764171899</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>69.71657238081387</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>54.79268646174603</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>113.876117358763</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>4.209965709378594e-13</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5.826450433232822e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>871239.3948219138</v>
+        <v>838040.7463257287</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780515.5931250058</v>
+        <v>788815.2552490524</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>809970.2135657695</v>
+        <v>818269.8756898158</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>809970.2135657696</v>
+        <v>818269.875689816</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>809970.2135657696</v>
+        <v>818269.8756898158</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856143.5742231975</v>
+        <v>856143.5742231973</v>
       </c>
     </row>
     <row r="11">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67018.41498630104</v>
+        <v>64464.6727942868</v>
       </c>
       <c r="C2" t="n">
         <v>67018.41498630105</v>
       </c>
       <c r="D2" t="n">
-        <v>67018.41498630104</v>
+        <v>67018.41498630105</v>
       </c>
       <c r="E2" t="n">
-        <v>60039.66100961583</v>
+        <v>60678.09655761941</v>
       </c>
       <c r="F2" t="n">
-        <v>62305.40104352072</v>
+        <v>62943.8365915243</v>
       </c>
       <c r="G2" t="n">
-        <v>62305.40104352072</v>
+        <v>62943.8365915243</v>
       </c>
       <c r="H2" t="n">
-        <v>62305.40104352074</v>
+        <v>62943.8365915243</v>
       </c>
       <c r="I2" t="n">
         <v>65857.19801716902</v>
       </c>
       <c r="J2" t="n">
-        <v>65857.19801716904</v>
+        <v>65857.19801716902</v>
       </c>
       <c r="K2" t="n">
-        <v>65857.19801716904</v>
+        <v>65857.19801716902</v>
       </c>
       <c r="L2" t="n">
         <v>67018.41498630107</v>
@@ -26347,7 +26347,7 @@
         <v>67018.41498630107</v>
       </c>
       <c r="N2" t="n">
-        <v>67018.41498630107</v>
+        <v>67018.41498630108</v>
       </c>
       <c r="O2" t="n">
         <v>67018.41498630107</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53344.06581631865</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>158717.2285962111</v>
+        <v>142308.3034650639</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510031</v>
+        <v>16812.40227510025</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24459.9984831789</v>
+        <v>20063.31346665497</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>56451.54017170904</v>
+        <v>12988.5682709979</v>
       </c>
       <c r="M3" t="n">
-        <v>132471.1406570149</v>
+        <v>118775.6581419521</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>101843.6705167223</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>129865.9200706957</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>735.1045119022449</v>
+        <v>742.9212924104</v>
       </c>
       <c r="F4" t="n">
-        <v>762.8454367128343</v>
+        <v>770.6622172209893</v>
       </c>
       <c r="G4" t="n">
-        <v>762.8454367128343</v>
+        <v>770.6622172209893</v>
       </c>
       <c r="H4" t="n">
-        <v>762.8454367128343</v>
+        <v>770.6622172209893</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26445,16 +26445,16 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>6148.690207415867</v>
+        <v>6148.690207415868</v>
       </c>
       <c r="M4" t="n">
-        <v>6148.690207415867</v>
+        <v>6148.690207415868</v>
       </c>
       <c r="N4" t="n">
         <v>16466.62778780235</v>
       </c>
       <c r="O4" t="n">
-        <v>16466.62778780236</v>
+        <v>16466.62778780235</v>
       </c>
       <c r="P4" t="n">
         <v>16466.62778780235</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>69865.88913079081</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>68558.17706174901</v>
+        <v>69563.43219016932</v>
       </c>
       <c r="F5" t="n">
-        <v>72125.72087391997</v>
+        <v>73130.97600234028</v>
       </c>
       <c r="G5" t="n">
-        <v>72125.72087391997</v>
+        <v>73130.97600234028</v>
       </c>
       <c r="H5" t="n">
-        <v>72125.72087391997</v>
+        <v>73130.97600234028</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,7 +26503,7 @@
         <v>79083.15853826067</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
         <v>75515.6147260897</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-303765.7670803911</v>
+        <v>-335342.2957120783</v>
       </c>
       <c r="C6" t="n">
-        <v>-161574.4664206811</v>
+        <v>-120698.5157937073</v>
       </c>
       <c r="D6" t="n">
-        <v>-186057.4600315042</v>
+        <v>-120698.5157937073</v>
       </c>
       <c r="E6" t="n">
-        <v>-167970.8491602465</v>
+        <v>-152063.3667585978</v>
       </c>
       <c r="F6" t="n">
-        <v>-27395.5675422124</v>
+        <v>-27851.69547103276</v>
       </c>
       <c r="G6" t="n">
-        <v>-10583.16526711208</v>
+        <v>-11039.2931959325</v>
       </c>
       <c r="H6" t="n">
-        <v>-10583.16526711206</v>
+        <v>-11039.2931959325</v>
       </c>
       <c r="I6" t="n">
-        <v>-37127.371462585</v>
+        <v>-32753.91078544371</v>
       </c>
       <c r="J6" t="n">
-        <v>-123681.8383243963</v>
+        <v>-187341.9460364949</v>
       </c>
       <c r="K6" t="n">
-        <v>-12667.37297940608</v>
+        <v>-12690.59731878874</v>
       </c>
       <c r="L6" t="n">
-        <v>-74664.97393108452</v>
+        <v>-31202.00203037338</v>
       </c>
       <c r="M6" t="n">
-        <v>-150684.5744163904</v>
+        <v>-136989.0919013276</v>
       </c>
       <c r="N6" t="n">
         <v>-24963.82752759098</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>596.0244922827436</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1127.601596410346</v>
+        <v>1144.135397864627</v>
       </c>
       <c r="F4" t="n">
-        <v>1186.278303847368</v>
+        <v>1202.812105301649</v>
       </c>
       <c r="G4" t="n">
-        <v>1186.278303847368</v>
+        <v>1202.812105301649</v>
       </c>
       <c r="H4" t="n">
-        <v>1186.278303847368</v>
+        <v>1202.812105301649</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>171.7286347626393</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>531.5771041276018</v>
+        <v>476.62019125677</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702251</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.98219953737726</v>
+        <v>75.44839808309598</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>171.7286347626393</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>531.5771041276018</v>
+        <v>476.62019125677</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>171.7286347626393</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>531.5771041276018</v>
+        <v>476.62019125677</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702251</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>34.51805916035684</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>147.0847798444624</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27540,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>70.9290962984829</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>229.4233680290254</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F5" t="n">
-        <v>105.9706131526087</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>287.3649926537461</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.07595124972562</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>73.62918697961771</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>369.7677262526161</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>172.7122558936705</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>143.651671086679</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>119.5586760879112</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30645,7 +30645,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874771</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
         <v>16.23571033874737</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34784,19 +34784,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>117.3049970300782</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,16 +35100,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>34.867532687005</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35182,13 +35182,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>445.0855195119907</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>596.0244922827436</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>596.0244922827437</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35261,13 +35261,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O9" t="n">
-        <v>419.4583812045228</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>596.0244922827436</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,7 +35337,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>181.0507747742103</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,7 +35346,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,25 +35413,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>787.6063488555145</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1144.135397864627</v>
       </c>
       <c r="N11" t="n">
-        <v>1127.601596410346</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>706.9770502808178</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,7 +35653,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1075.909168919864</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>12.56950007311843</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35890,7 +35890,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>1075.909168919864</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35899,7 +35899,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>678.3834496492195</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,7 +36048,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>1075.909168919864</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>12.56950007311843</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36212,7 +36212,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,7 +36285,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36598,7 +36598,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>928.8008214318188</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36613,10 +36613,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>928.8008214318197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37087,10 +37087,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37160,13 +37160,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37306,16 +37306,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.31828743765</v>
+        <v>1142.318287437651</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>702.6670879902581</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.31828743765</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -37941,16 +37941,16 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467892</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.31828743765</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>30.75170697498379</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
